--- a/01-18-26 to 01-24-26 Madison Schedule.xlsx
+++ b/01-18-26 to 01-24-26 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y82"/>
+  <dimension ref="A1:Y81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2511,7 +2511,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2654,7 +2654,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2725,7 +2725,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2805,7 +2805,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2873,21 +2873,9 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
@@ -3017,7 +3005,11 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8:00 AM START</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
@@ -3079,7 +3071,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>8:00 AM START</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -3138,7 +3130,7 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>MILE BLUFF NECEDAH MEDICAL REMOTE DISPENSING SITE, NECEDAH</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -3197,7 +3189,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>MILE BLUFF NECEDAH MEDICAL REMOTE DISPENSING SITE, NECEDAH</t>
+          <t>1408 WEELIHAN AVE</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -3260,7 +3252,7 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1408 WEELIHAN AVE</t>
+          <t>https://goo.gl/maps/VCUnQvrCdQvsWgxA8</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -3311,7 +3303,7 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/VCUnQvrCdQvsWgxA8</t>
+          <t xml:space="preserve">TO FOLLOW    </t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -3362,7 +3354,7 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW    </t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -3413,7 +3405,7 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>MILE BLUFF ELROY CLINIC OUTPATIENT PHARMACY, ELROY</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -3448,7 +3440,7 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>MILE BLUFF ELROY CLINIC OUTPATIENT PHARMACY, ELROY</t>
+          <t>1515 ACADEMY ST</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -3495,7 +3487,7 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1515 ACADEMY ST</t>
+          <t>https://goo.gl/maps/TFEAdXw87Xhzr4iPA</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -3538,7 +3530,7 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TFEAdXw87Xhzr4iPA</t>
+          <t xml:space="preserve">TO FOLLOW    </t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -3593,7 +3585,7 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW    </t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -3644,7 +3636,7 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>MILE BLUFF NEW LISBON FAMILY CENTER, NEW LISBON</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -3695,7 +3687,7 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>MILE BLUFF NEW LISBON FAMILY CENTER, NEW LISBON</t>
+          <t>901 W BRIDGE ST</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -3746,7 +3738,7 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>901 W BRIDGE ST</t>
+          <t>https://maps.app.goo.gl/bQ1in55fdyPED6jB9</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -3789,7 +3781,7 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/bQ1in55fdyPED6jB9</t>
+          <t>*5:30 am IL office leave time, meet Sarah/Lori in Dells</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -3820,7 +3812,7 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>*5:30 am IL office leave time, meet Sarah/Lori in Dells</t>
+          <t>7:15 am meet for Sarah, Lori, and Qiana at WI Dells Walmart</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -3863,7 +3855,8 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>7:15 am meet for Sarah, Lori, and Qiana at WI Dells Walmart</t>
+          <t>Address to Walmart:
+130 Commerce St, WI Dells</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -3900,12 +3893,7 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Address to Walmart:
-130 Commerce St, WI Dells</t>
-        </is>
-      </c>
+      <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
@@ -3939,9 +3927,21 @@
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Driver, Equip</t>
+        </is>
+      </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
@@ -3976,19 +3976,15 @@
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Driver, Equip</t>
-        </is>
-      </c>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -4015,15 +4011,19 @@
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Camry 3 to WI Dells</t>
+        </is>
+      </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -4048,21 +4048,9 @@
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>Camry 3 to WI Dells</t>
-        </is>
-      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -4115,7 +4103,11 @@
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
@@ -4144,7 +4136,7 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -4175,7 +4167,7 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #73, POLO RD MOBIL, STERLING</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -4206,7 +4198,7 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>KELLEY #73, POLO RD MOBIL, STERLING</t>
+          <t>4002 LINCOLNWAY</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -4237,7 +4229,7 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>4002 LINCOLNWAY</t>
+          <t>https://goo.gl/maps/Kxx3oPMedio</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -4268,7 +4260,7 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Kxx3oPMedio</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -4299,7 +4291,7 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+          <t xml:space="preserve">*IL Meet is 5:15 am at IL Office  </t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -4328,11 +4320,7 @@
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">*IL Meet is 5:15 am at IL Office  </t>
-        </is>
-      </c>
+      <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
@@ -4358,9 +4346,21 @@
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -4387,17 +4387,18 @@
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Mike G</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver,
+Red Camry</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
@@ -4426,20 +4427,15 @@
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -4466,12 +4462,12 @@
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
@@ -4501,15 +4497,19 @@
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr"/>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -4529,45 +4529,6 @@
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr"/>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/01-18-26 to 01-24-26 Madison Schedule.xlsx
+++ b/01-18-26 to 01-24-26 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y81"/>
+  <dimension ref="A1:Y82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2350,7 +2350,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2873,9 +2873,21 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
@@ -3005,11 +3017,7 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>8:00 AM START</t>
-        </is>
-      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
@@ -3071,7 +3079,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>8:00 AM START</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -3130,7 +3138,7 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>MILE BLUFF NECEDAH MEDICAL REMOTE DISPENSING SITE, NECEDAH</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -3189,7 +3197,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1408 WEELIHAN AVE</t>
+          <t>MILE BLUFF NECEDAH MEDICAL REMOTE DISPENSING SITE, NECEDAH</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -3252,7 +3260,7 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/VCUnQvrCdQvsWgxA8</t>
+          <t>1408 WEELIHAN AVE</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -3303,7 +3311,7 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW    </t>
+          <t>https://goo.gl/maps/VCUnQvrCdQvsWgxA8</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -3354,7 +3362,7 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t xml:space="preserve">TO FOLLOW    </t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -3405,7 +3413,7 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>MILE BLUFF ELROY CLINIC OUTPATIENT PHARMACY, ELROY</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -3440,7 +3448,7 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1515 ACADEMY ST</t>
+          <t>MILE BLUFF ELROY CLINIC OUTPATIENT PHARMACY, ELROY</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -3487,7 +3495,7 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TFEAdXw87Xhzr4iPA</t>
+          <t>1515 ACADEMY ST</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -3530,7 +3538,7 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW    </t>
+          <t>https://goo.gl/maps/TFEAdXw87Xhzr4iPA</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -3585,7 +3593,7 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t xml:space="preserve">TO FOLLOW    </t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -3636,7 +3644,7 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>MILE BLUFF NEW LISBON FAMILY CENTER, NEW LISBON</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -3687,7 +3695,7 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>901 W BRIDGE ST</t>
+          <t>MILE BLUFF NEW LISBON FAMILY CENTER, NEW LISBON</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -3738,7 +3746,7 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/bQ1in55fdyPED6jB9</t>
+          <t>901 W BRIDGE ST</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -3781,7 +3789,7 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>*5:30 am IL office leave time, meet Sarah/Lori in Dells</t>
+          <t>https://maps.app.goo.gl/bQ1in55fdyPED6jB9</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -3812,7 +3820,7 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>7:15 am meet for Sarah, Lori, and Qiana at WI Dells Walmart</t>
+          <t>*5:30 am IL office leave time, meet Sarah/Lori in Dells</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -3855,8 +3863,7 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Address to Walmart:
-130 Commerce St, WI Dells</t>
+          <t>7:15 am meet for Sarah, Lori, and Qiana at WI Dells Walmart</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -3893,7 +3900,12 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Address to Walmart:
+130 Commerce St, WI Dells</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
@@ -3927,21 +3939,9 @@
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Driver, Equip</t>
-        </is>
-      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
@@ -3976,15 +3976,19 @@
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Driver, Equip</t>
+        </is>
+      </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -4011,19 +4015,15 @@
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Camry 3 to WI Dells</t>
-        </is>
-      </c>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -4048,9 +4048,21 @@
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Camry 3 to WI Dells</t>
+        </is>
+      </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -4103,11 +4115,7 @@
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
@@ -4136,7 +4144,7 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -4167,7 +4175,7 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>KELLEY #73, POLO RD MOBIL, STERLING</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -4198,7 +4206,7 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>4002 LINCOLNWAY</t>
+          <t>KELLEY #73, POLO RD MOBIL, STERLING</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -4229,7 +4237,7 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Kxx3oPMedio</t>
+          <t>4002 LINCOLNWAY</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -4260,7 +4268,7 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+          <t>https://goo.gl/maps/Kxx3oPMedio</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -4291,7 +4299,7 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t xml:space="preserve">*IL Meet is 5:15 am at IL Office  </t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -4320,7 +4328,11 @@
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*IL Meet is 5:15 am at IL Office  </t>
+        </is>
+      </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
@@ -4346,21 +4358,9 @@
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -4387,18 +4387,17 @@
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Mike G</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Driver,
-Red Camry</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
@@ -4427,15 +4426,20 @@
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -4462,12 +4466,12 @@
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
@@ -4497,19 +4501,15 @@
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -4529,6 +4529,45 @@
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
     </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/01-18-26 to 01-24-26 Madison Schedule.xlsx
+++ b/01-18-26 to 01-24-26 Madison Schedule.xlsx
@@ -1637,7 +1637,7 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>PREMIER COOP HAREWARE, MT HOREB</t>
+          <t>PREMIER COOP HARDWARE, MT HOREB</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>

--- a/01-18-26 to 01-24-26 Madison Schedule.xlsx
+++ b/01-18-26 to 01-24-26 Madison Schedule.xlsx
@@ -1295,7 +1295,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -1368,10 +1368,15 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Optima</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1433,13 +1438,14 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Optima</t>
+Silver Van,
+Trainer</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
@@ -1506,14 +1512,13 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Silver Van,
-Trainer</t>
+Optima</t>
         </is>
       </c>
       <c r="P22" t="inlineStr"/>
@@ -1583,13 +1588,12 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Optima</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
@@ -1661,7 +1665,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -1742,12 +1746,13 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+work w/ Michael</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
@@ -1823,13 +1828,12 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Matthew</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>@ Store,
-work w/ Michael</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
@@ -1897,21 +1901,9 @@
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2026,7 +2018,11 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>6:30 AMSTART</t>
+        </is>
+      </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
@@ -2083,7 +2079,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>6:30 AMSTART</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
@@ -2139,7 +2135,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>KELLEY #53, MIDDLETON MOBIL</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -2204,7 +2200,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>KELLEY #53, MIDDLETON MOBIL</t>
+          <t>8613 UNIVERSITY GREEN</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2268,7 +2264,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>8613 UNIVERSITY GREEN</t>
+          <t>https://goo.gl/maps/btWWBCtemW22</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2319,7 +2315,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/btWWBCtemW22</t>
+          <t>*IL Meet is 5:00 am at IL Office</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2370,7 +2366,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:00 am at IL Office</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2423,11 +2419,7 @@
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
-        </is>
-      </c>
+      <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
@@ -2481,9 +2473,21 @@
         </is>
       </c>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>@ Store, Camry 3, Equip</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
@@ -2526,17 +2530,18 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>@ Store, Camry 3, Equip</t>
+          <t>Driver,
+Red Camry</t>
         </is>
       </c>
       <c r="P38" t="inlineStr"/>
@@ -2605,20 +2610,15 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
@@ -2681,15 +2681,19 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
@@ -2752,12 +2756,12 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -2832,12 +2836,12 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Savannah</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -2905,21 +2909,9 @@
         </is>
       </c>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Savannah</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3037,7 +3029,11 @@
       </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
@@ -3103,7 +3099,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -3162,7 +3158,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #41, WINNEBAGO MOBIL</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3221,7 +3217,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>KELLEY #41, WINNEBAGO MOBIL</t>
+          <t>903 N ELIDA ST</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3284,7 +3280,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>903 N ELIDA ST</t>
+          <t>https://goo.gl/maps/2n1o2yip8H52</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3335,7 +3331,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/2n1o2yip8H52</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3384,11 +3380,7 @@
       </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
-        </is>
-      </c>
+      <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
@@ -3422,9 +3414,21 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
@@ -3459,19 +3463,15 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Amy</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
@@ -3510,12 +3510,12 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Amy</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3553,12 +3553,12 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3608,12 +3608,12 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3659,12 +3659,12 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3708,16 +3708,8 @@
       </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">

--- a/01-18-26 to 01-24-26 Madison Schedule.xlsx
+++ b/01-18-26 to 01-24-26 Madison Schedule.xlsx
@@ -2020,7 +2020,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>6:30 AMSTART</t>
+          <t>7:30 AM START</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -2315,7 +2315,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:00 am at IL Office</t>
+          <t>*IL Meet is 6:00 am at IL Office</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>

--- a/01-18-26 to 01-24-26 Madison Schedule.xlsx
+++ b/01-18-26 to 01-24-26 Madison Schedule.xlsx
@@ -1328,7 +1328,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>Driver,
+          <t>Driver, 1/2
 Silver Van,
 Supv Rx</t>
         </is>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -1626,7 +1626,7 @@
       <c r="W23" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Optima,
+Silver Van,
 Trainer</t>
         </is>
       </c>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -1697,13 +1697,12 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Anamaria</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Optima</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X24" t="inlineStr"/>
@@ -1746,13 +1745,12 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Matthew</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>@ Store,
-work w/ Michael</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
@@ -1779,7 +1777,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Anamaria</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -1828,12 +1826,13 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+work w/ Michael</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
@@ -1860,7 +1859,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Andrew</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -1901,9 +1900,21 @@
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
@@ -1929,7 +1940,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -1980,12 +1991,13 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="X28" t="inlineStr"/>
@@ -2018,11 +2030,7 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>7:30 AM START</t>
-        </is>
-      </c>
+      <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
@@ -2036,12 +2044,13 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Mariah</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+work w/ Justin</t>
         </is>
       </c>
       <c r="X29" t="inlineStr"/>
@@ -2079,7 +2088,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:30 AM START</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
@@ -2095,13 +2104,13 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
           <t>@ Store,
-Trainer</t>
+work w/ Leyna</t>
         </is>
       </c>
       <c r="X30" t="inlineStr"/>
@@ -2135,7 +2144,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>KELLEY #53, MIDDLETON MOBIL</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -2155,13 +2164,12 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Mariah</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>@ Store,
-work w/ Justin</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X31" t="inlineStr"/>
@@ -2200,7 +2208,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>8613 UNIVERSITY GREEN</t>
+          <t>KELLEY #53, MIDDLETON MOBIL</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2213,22 +2221,9 @@
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>Matthew</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>@ Store,
-work w/ Leyna</t>
-        </is>
-      </c>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
     </row>
@@ -2264,7 +2259,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/btWWBCtemW22</t>
+          <t>8613 UNIVERSITY GREEN</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2315,7 +2310,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>*IL Meet is 6:00 am at IL Office</t>
+          <t>https://goo.gl/maps/btWWBCtemW22</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2329,7 +2324,11 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
@@ -2366,7 +2365,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
+          <t>*IL Meet is 6:00 am at IL Office</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2382,7 +2381,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2419,7 +2418,11 @@
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
+        </is>
+      </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
@@ -2433,7 +2436,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>KELLEY #47, FISH HATCHERY MOBIL, MADISON</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2473,21 +2476,9 @@
         </is>
       </c>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>@ Store, Camry 3, Equip</t>
-        </is>
-      </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
@@ -2496,7 +2487,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>KELLEY #47, FISH HATCHERY MOBIL, MADISON</t>
+          <t>2956 FISH HATCHERY RD</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2530,18 +2521,17 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Driver,
-Red Camry</t>
+          <t>@ Store, Camry 3, Equip</t>
         </is>
       </c>
       <c r="P38" t="inlineStr"/>
@@ -2564,7 +2554,7 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>2956 FISH HATCHERY RD</t>
+          <t>https://goo.gl/maps/vTRibsJKTQs</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2610,15 +2600,20 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
@@ -2635,7 +2630,7 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/vTRibsJKTQs</t>
+          <t>*IL Meet is 5:15 am at IL Office</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2681,19 +2676,15 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
@@ -2710,7 +2701,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:15 am at IL Office</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2756,12 +2747,12 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -2788,11 +2779,7 @@
       </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
-        </is>
-      </c>
+      <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
@@ -2836,12 +2823,12 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -2866,9 +2853,21 @@
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>@ Store, Camry 3, Equip</t>
+        </is>
+      </c>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
     </row>
@@ -2909,9 +2908,21 @@
         </is>
       </c>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Savannah</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
@@ -2927,17 +2938,18 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>@ Store, Camry 3, Equip</t>
+          <t>Driver,
+Red Camry</t>
         </is>
       </c>
       <c r="X43" t="inlineStr"/>
@@ -2986,20 +2998,15 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
     </row>
@@ -3029,41 +3036,28 @@
       </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
     </row>
@@ -3099,7 +3093,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -3110,12 +3104,12 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
@@ -3158,23 +3152,27 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>KELLEY #41, WINNEBAGO MOBIL</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Savannah</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
@@ -3217,7 +3215,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>903 N ELIDA ST</t>
+          <t>KELLEY #41, WINNEBAGO MOBIL</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3225,26 +3223,14 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>Savannah</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
     </row>
@@ -3280,7 +3266,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/2n1o2yip8H52</t>
+          <t>903 N ELIDA ST</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3288,7 +3274,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #30, PERRYVILLE MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -3331,7 +3317,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+          <t>https://goo.gl/maps/2n1o2yip8H52</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3339,13 +3325,17 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>KELLEY #30, PERRYVILLE MOBIL, ROCKFORD</t>
+          <t>3251 N PERRYVILLE RD</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
@@ -3380,19 +3370,27 @@
       </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+        </is>
+      </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>3251 N PERRYVILLE RD</t>
+          <t>https://goo.gl/maps/9WqWnwwgzV92</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
@@ -3414,32 +3412,24 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/9WqWnwwgzV92</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>FESTIVAL #2709, FORT ATKINSON - LIFO</t>
+        </is>
+      </c>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
@@ -3463,26 +3453,30 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Amy</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
-        </is>
-      </c>
+      <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>328 WASHINGTON ST</t>
+        </is>
+      </c>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
@@ -3510,22 +3504,38 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Amy</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/E1u3J2TBaJA2</t>
+        </is>
+      </c>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
@@ -3553,34 +3563,34 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Amy</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>PARTIAL RESET-REMAPPED</t>
+        </is>
+      </c>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
@@ -3608,30 +3618,34 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Amy</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>*5:00 am IL office leave time</t>
+        </is>
+      </c>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
@@ -3659,24 +3673,24 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3708,25 +3722,45 @@
       </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>@ Store, Optima, Equip</t>
+        </is>
+      </c>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
     </row>
@@ -3755,21 +3789,25 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Celina</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
     </row>
@@ -3798,9 +3836,21 @@
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
     </row>
@@ -3841,9 +3891,21 @@
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Dan</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
     </row>
@@ -3880,9 +3942,21 @@
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
     </row>
@@ -3920,9 +3994,21 @@
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
     </row>
@@ -3955,9 +4041,21 @@
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>Madison</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
     </row>
@@ -3994,9 +4092,21 @@
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
     </row>
@@ -4029,9 +4139,21 @@
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
     </row>
@@ -4068,9 +4190,21 @@
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
     </row>

--- a/01-18-26 to 01-24-26 Madison Schedule.xlsx
+++ b/01-18-26 to 01-24-26 Madison Schedule.xlsx
@@ -2773,7 +2773,7 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>Driver, 1/2
+          <t>Driver, 
 Silver Van</t>
         </is>
       </c>

--- a/01-18-26 to 01-24-26 Madison Schedule.xlsx
+++ b/01-18-26 to 01-24-26 Madison Schedule.xlsx
@@ -1991,13 +1991,12 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X28" t="inlineStr"/>
@@ -2044,13 +2043,13 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Mariah</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
           <t>@ Store,
-work w/ Justin</t>
+Trainer</t>
         </is>
       </c>
       <c r="X29" t="inlineStr"/>
@@ -2104,13 +2103,13 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Matthew</t>
+          <t>Mariah</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
           <t>@ Store,
-work w/ Leyna</t>
+work w/ Justin</t>
         </is>
       </c>
       <c r="X30" t="inlineStr"/>
@@ -2164,12 +2163,13 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+work w/ Leyna</t>
         </is>
       </c>
       <c r="X31" t="inlineStr"/>
@@ -2221,9 +2221,21 @@
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
     </row>
@@ -2324,11 +2336,7 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
@@ -2381,7 +2389,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2436,7 +2444,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>KELLEY #47, FISH HATCHERY MOBIL, MADISON</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2487,7 +2495,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>2956 FISH HATCHERY RD</t>
+          <t>KELLEY #47, FISH HATCHERY MOBIL, MADISON</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2554,7 +2562,7 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/vTRibsJKTQs</t>
+          <t>2956 FISH HATCHERY RD</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2630,7 +2638,7 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:15 am at IL Office</t>
+          <t>https://goo.gl/maps/vTRibsJKTQs</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2701,7 +2709,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
+          <t>*IL Meet is 5:15 am at IL Office</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2779,7 +2787,11 @@
       </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
+        </is>
+      </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
@@ -2844,30 +2856,14 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Bri</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>@ Store, Camry 3, Equip</t>
-        </is>
-      </c>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
     </row>
@@ -2931,25 +2927,24 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>Driver,
-Red Camry</t>
+          <t>@ Store, Camry 3, Equip</t>
         </is>
       </c>
       <c r="X43" t="inlineStr"/>
@@ -2984,29 +2979,26 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>Joseph</t>
-        </is>
-      </c>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
     </row>
@@ -3045,19 +3037,15 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
     </row>
@@ -3099,17 +3087,21 @@
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
@@ -3160,19 +3152,19 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
@@ -3223,14 +3215,26 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>PICK #847 +FC-RX, WEST ALLIS - MARKET SQ</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Savannah</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
     </row>
@@ -3274,7 +3278,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>KELLEY #30, PERRYVILLE MOBIL, ROCKFORD</t>
+          <t>6760 W NATIONAL AVE</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -3325,17 +3329,13 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>3251 N PERRYVILLE RD</t>
+          <t>https://goo.gl/maps/G4vnZ7jFLF1ooLXD8</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
@@ -3380,7 +3380,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/9WqWnwwgzV92</t>
+          <t>SET UP ON REG #6; FUEL CENTER USUALLY DBS, BUT ASK</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -3417,17 +3417,13 @@
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
-        </is>
-      </c>
+      <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
         <is>
-          <t>FESTIVAL #2709, FORT ATKINSON - LIFO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -3467,14 +3463,26 @@
         </is>
       </c>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Bri</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr">
         <is>
-          <t>328 WASHINGTON ST</t>
+          <t>FESTIVAL #2709, FORT ATKINSON - LIFO</t>
         </is>
       </c>
       <c r="W53" t="inlineStr"/>
@@ -3516,24 +3524,24 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Mike G</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/E1u3J2TBaJA2</t>
+          <t>328 WASHINGTON ST</t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
@@ -3575,20 +3583,25 @@
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Amy</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>@ Store,
+until 11:15</t>
+        </is>
+      </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
         <is>
-          <t>PARTIAL RESET-REMAPPED</t>
+          <t>https://goo.gl/maps/E1u3J2TBaJA2</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
@@ -3630,20 +3643,24 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Laci</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr"/>
+          <t>Celina</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr">
         <is>
-          <t>*5:00 am IL office leave time</t>
+          <t>PARTIAL RESET-REMAPPED</t>
         </is>
       </c>
       <c r="W56" t="inlineStr"/>
@@ -3685,18 +3702,26 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr"/>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>*5:00 am IL office leave time</t>
+        </is>
+      </c>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
@@ -3736,31 +3761,23 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr"/>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>@ Store, Optima, Equip</t>
-        </is>
-      </c>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
     </row>
@@ -3789,23 +3806,36 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>@ Store,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Optima, Equip</t>
         </is>
       </c>
       <c r="X59" t="inlineStr"/>
@@ -3832,18 +3862,31 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>@ Store,
+Trainer</t>
+        </is>
+      </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
@@ -3887,18 +3930,30 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Mariah</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>Dan</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
@@ -3938,18 +3993,31 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>@ Store,
+until 12:00</t>
+        </is>
+      </c>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Dan</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
@@ -3990,18 +4058,30 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
@@ -4037,18 +4117,31 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>@ Store,
+Rx</t>
+        </is>
+      </c>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
@@ -4088,18 +4181,30 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
@@ -4141,12 +4246,12 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
@@ -4192,12 +4297,12 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
@@ -4226,12 +4331,28 @@
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
     </row>
@@ -4253,7 +4374,11 @@
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>MODAS-SCAN</t>
+        </is>
+      </c>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
@@ -4284,7 +4409,11 @@
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>KELLEY #30, PERRYVILLE MOBIL, ROCKFORD</t>
+        </is>
+      </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
@@ -4315,7 +4444,11 @@
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>3251 N PERRYVILLE RD</t>
+        </is>
+      </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
@@ -4346,7 +4479,11 @@
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/9WqWnwwgzV92</t>
+        </is>
+      </c>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
@@ -4377,7 +4514,11 @@
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+        </is>
+      </c>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
@@ -4438,9 +4579,21 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr"/>
@@ -4469,8 +4622,16 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>Amy</t>
+        </is>
+      </c>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
@@ -4496,8 +4657,16 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>Laci</t>
+        </is>
+      </c>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
@@ -4535,8 +4704,16 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>Spencer P</t>
+        </is>
+      </c>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
@@ -4575,8 +4752,16 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>

--- a/01-18-26 to 01-24-26 Madison Schedule.xlsx
+++ b/01-18-26 to 01-24-26 Madison Schedule.xlsx
@@ -4240,7 +4240,11 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
@@ -4331,11 +4335,7 @@
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
@@ -4376,7 +4376,7 @@
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S69" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr">
         <is>
-          <t>KELLEY #30, PERRYVILLE MOBIL, ROCKFORD</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S70" t="inlineStr"/>
@@ -4446,7 +4446,7 @@
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr">
         <is>
-          <t>3251 N PERRYVILLE RD</t>
+          <t>KELLEY #30, PERRYVILLE MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="S71" t="inlineStr"/>
@@ -4481,7 +4481,7 @@
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/9WqWnwwgzV92</t>
+          <t>3251 N PERRYVILLE RD</t>
         </is>
       </c>
       <c r="S72" t="inlineStr"/>
@@ -4516,7 +4516,7 @@
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+          <t>https://goo.gl/maps/9WqWnwwgzV92</t>
         </is>
       </c>
       <c r="S73" t="inlineStr"/>
@@ -4549,7 +4549,11 @@
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+        </is>
+      </c>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
@@ -4579,21 +4583,9 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr"/>
@@ -4624,15 +4616,19 @@
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Amy</t>
-        </is>
-      </c>
-      <c r="S76" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr"/>
@@ -4659,12 +4655,12 @@
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Amy</t>
         </is>
       </c>
       <c r="S77" t="inlineStr"/>
@@ -4706,12 +4702,12 @@
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S78" t="inlineStr"/>
@@ -4754,12 +4750,12 @@
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="S79" t="inlineStr"/>
@@ -4795,8 +4791,16 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>

--- a/01-18-26 to 01-24-26 Madison Schedule.xlsx
+++ b/01-18-26 to 01-24-26 Madison Schedule.xlsx
@@ -587,7 +587,11 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Please make sure your phones are charged before leaving the house in the morning</t>
+        </is>
+      </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
@@ -618,7 +622,11 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Please let Jake know if anyone is unaccounted for at the meet</t>
+        </is>
+      </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
@@ -4000,13 +4008,13 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Missy</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
         <is>
           <t>@ Store,
-until 12:00</t>
+work w/ Leyna</t>
         </is>
       </c>
       <c r="T62" t="inlineStr"/>
@@ -4065,12 +4073,13 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+until 12:00</t>
         </is>
       </c>
       <c r="T63" t="inlineStr"/>
@@ -4124,13 +4133,12 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T64" t="inlineStr"/>
@@ -4188,12 +4196,13 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="T65" t="inlineStr"/>
@@ -4245,8 +4254,16 @@
           <t>14)</t>
         </is>
       </c>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>

--- a/01-18-26 to 01-24-26 Madison Schedule.xlsx
+++ b/01-18-26 to 01-24-26 Madison Schedule.xlsx
@@ -1867,7 +1867,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -1999,12 +1999,13 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="X28" t="inlineStr"/>
@@ -2051,13 +2052,13 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Mariah</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
           <t>@ Store,
-Trainer</t>
+work w/ Justin</t>
         </is>
       </c>
       <c r="X29" t="inlineStr"/>
@@ -2111,13 +2112,13 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Mariah</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
           <t>@ Store,
-work w/ Justin</t>
+work w/ Leyna</t>
         </is>
       </c>
       <c r="X30" t="inlineStr"/>
@@ -2171,13 +2172,12 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Matthew</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>@ Store,
-work w/ Leyna</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X31" t="inlineStr"/>
@@ -2229,21 +2229,9 @@
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
     </row>
@@ -2344,7 +2332,11 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
@@ -2397,7 +2389,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2452,7 +2444,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>KELLEY #47, FISH HATCHERY MOBIL, MADISON</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2503,7 +2495,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>KELLEY #47, FISH HATCHERY MOBIL, MADISON</t>
+          <t>2956 FISH HATCHERY RD</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2570,7 +2562,7 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>2956 FISH HATCHERY RD</t>
+          <t>https://goo.gl/maps/vTRibsJKTQs</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2646,7 +2638,7 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/vTRibsJKTQs</t>
+          <t>*IL Meet is 5:15 am at IL Office</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2717,7 +2709,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:15 am at IL Office</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2795,11 +2787,7 @@
       </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags </t>
-        </is>
-      </c>
+      <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
@@ -2869,9 +2857,21 @@
       </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>@ Store, Camry 3, Equip</t>
+        </is>
+      </c>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
     </row>
@@ -2942,17 +2942,18 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>@ Store, Camry 3, Equip</t>
+          <t>Driver,
+Red Camry</t>
         </is>
       </c>
       <c r="X43" t="inlineStr"/>
@@ -2993,20 +2994,15 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
     </row>
@@ -3045,15 +3041,19 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
     </row>
@@ -3104,12 +3104,12 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
@@ -3167,12 +3167,12 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Savannah</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
@@ -3228,21 +3228,9 @@
       </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>Savannah</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
     </row>
@@ -3343,7 +3331,11 @@
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
@@ -3396,7 +3388,7 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -3431,7 +3423,7 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FESTIVAL #2709, FORT ATKINSON - LIFO</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -3490,7 +3482,7 @@
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr">
         <is>
-          <t>FESTIVAL #2709, FORT ATKINSON - LIFO</t>
+          <t>328 WASHINGTON ST</t>
         </is>
       </c>
       <c r="W53" t="inlineStr"/>
@@ -3549,7 +3541,7 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr">
         <is>
-          <t>328 WASHINGTON ST</t>
+          <t>https://goo.gl/maps/E1u3J2TBaJA2</t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
@@ -3609,7 +3601,7 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/E1u3J2TBaJA2</t>
+          <t>PARTIAL RESET-REMAPPED</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
@@ -3668,7 +3660,7 @@
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr">
         <is>
-          <t>PARTIAL RESET-REMAPPED</t>
+          <t>*5:00 am IL office leave time</t>
         </is>
       </c>
       <c r="W56" t="inlineStr"/>
@@ -3725,11 +3717,7 @@
       </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>*5:00 am IL office leave time</t>
-        </is>
-      </c>
+      <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
@@ -3783,9 +3771,21 @@
         </is>
       </c>
       <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>@ Store, Optima, Equip</t>
+        </is>
+      </c>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
     </row>
@@ -3833,17 +3833,17 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>@ Store, Optima, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X59" t="inlineStr"/>
@@ -3889,12 +3889,12 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
@@ -3956,12 +3956,12 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Dan</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
@@ -4020,12 +4020,12 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>Dan</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
@@ -4085,12 +4085,12 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
@@ -4144,12 +4144,12 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
@@ -4208,12 +4208,12 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
@@ -4267,12 +4267,12 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
@@ -4318,12 +4318,12 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
@@ -4355,21 +4355,9 @@
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="V68" t="inlineStr">
-        <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="W68" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
     </row>

--- a/01-18-26 to 01-24-26 Madison Schedule.xlsx
+++ b/01-18-26 to 01-24-26 Madison Schedule.xlsx
@@ -3894,7 +3894,7 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Dan</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>Dan</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">

--- a/01-18-26 to 01-24-26 Madison Schedule.xlsx
+++ b/01-18-26 to 01-24-26 Madison Schedule.xlsx
@@ -4213,7 +4213,7 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
@@ -4272,7 +4272,7 @@
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
@@ -4316,21 +4316,9 @@
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="V67" t="inlineStr">
-        <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="W67" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
     </row>
